--- a/Data/Data_KoalaStatus_20231130.xlsx
+++ b/Data/Data_KoalaStatus_20231130.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usqprd-my.sharepoint.com/personal/u8018879_usq_edu_au/Documents/InlandRail/Analysis&amp;Writing/Morphometric&amp;Health/Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usqprd-my.sharepoint.com/personal/u8018879_usq_edu_au/Documents/InlandRail/Analysis&amp;Writing/Morphometric&amp;Health/Analysis/Koala_Health_Morphometric/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2287" documentId="11_F25DC773A252ABDACC1048B6099B43565ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2F654C-A1DA-4A28-ACD5-7436A05E3ADD}"/>
+  <xr:revisionPtr revIDLastSave="2288" documentId="11_F25DC773A252ABDACC1048B6099B43565ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DFF7F1-3E09-4C7C-B606-A663061036B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Koala_20230908" sheetId="12" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>Watson and Yarranlea Rds (beside rail line)</t>
   </si>
   <si>
-    <t>Ironbark sp.</t>
-  </si>
-  <si>
     <t>Brown 11</t>
   </si>
   <si>
@@ -1109,6 +1106,9 @@
       </rPr>
       <t>sp.</t>
     </r>
+  </si>
+  <si>
+    <t>E. sideroxylon</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1651,16 +1651,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>21</v>
@@ -1678,58 +1678,58 @@
         <v>2</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="U1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="AC1" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>26</v>
@@ -1738,40 +1738,40 @@
         <v>27</v>
       </c>
       <c r="AF1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG1" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="AI1" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AO1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AP1" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="AQ1" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1785,10 +1785,10 @@
         <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="8">
         <v>12214</v>
@@ -1809,16 +1809,16 @@
         <v>20</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N2" s="8">
         <v>3</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P2" s="8">
         <v>5.8650000000000002</v>
@@ -1863,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG2" s="8">
         <v>3</v>
@@ -1876,26 +1876,26 @@
         <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN2" s="11"/>
       <c r="AO2" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AP2" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ2" s="29"/>
     </row>
@@ -1910,10 +1910,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="8">
         <v>12217</v>
@@ -1934,16 +1934,16 @@
         <v>20</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N3" s="8">
         <v>14</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P3" s="8">
         <v>8.23</v>
@@ -1988,25 +1988,25 @@
         <v>42</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AO3" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP3" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ3" s="29"/>
     </row>
@@ -2018,13 +2018,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="8">
         <v>12223</v>
@@ -2039,38 +2039,38 @@
         <v>1.95</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N4" s="8">
         <v>5</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P4" s="13">
         <f>7.84-0.365-0.125</f>
         <v>7.35</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R4" s="8">
         <v>7</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U4" s="10">
         <v>144</v>
@@ -2079,23 +2079,23 @@
         <v>78.400000000000006</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN4" s="11"/>
       <c r="AO4" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AP4" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ4" s="29"/>
     </row>
@@ -2104,16 +2104,16 @@
         <v>45166</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="14">
         <v>12253</v>
@@ -2128,38 +2128,38 @@
         <v>0.3</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="L5" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N5" s="8">
         <v>7</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P5" s="8">
         <f>5.75-0.3</f>
         <v>5.45</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R5" s="8">
         <v>6</v>
       </c>
       <c r="S5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="U5" s="10">
         <v>121.6</v>
@@ -2183,19 +2183,19 @@
         <v>4</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM5" s="8" t="s">
         <v>36</v>
@@ -2203,7 +2203,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
       <c r="AP5" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ5" s="11"/>
     </row>
@@ -2212,16 +2212,16 @@
         <v>45166</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="14">
         <v>12252</v>
@@ -2236,38 +2236,38 @@
         <v>0.4</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="L6" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N6" s="8">
         <v>11</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P6" s="8">
         <f>9.4-0.365</f>
         <v>9.0350000000000001</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" s="8">
         <v>7</v>
       </c>
       <c r="S6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="U6" s="10">
         <v>155.80000000000001</v>
@@ -2294,23 +2294,23 @@
         <v>42</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO6" s="11"/>
       <c r="AP6" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ6" s="11"/>
     </row>
@@ -2319,16 +2319,16 @@
         <v>45167</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="14">
         <v>12257</v>
@@ -2343,19 +2343,19 @@
         <v>1.5</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N7" s="8">
         <v>2</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P7" s="8">
         <f>5.04-0.2</f>
@@ -2368,10 +2368,10 @@
         <v>7</v>
       </c>
       <c r="S7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="U7" s="10">
         <v>116.4</v>
@@ -2395,25 +2395,25 @@
         <v>4</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK7" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL7" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AM7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="AN7" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="AP7" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -2421,16 +2421,16 @@
         <v>45167</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="14">
         <v>12254</v>
@@ -2445,38 +2445,38 @@
         <v>1.9</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N8" s="8">
         <v>11</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P8" s="8">
         <f>9.23-0.21</f>
         <v>9.02</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" s="8">
         <v>8</v>
       </c>
       <c r="S8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="U8" s="10">
         <v>158.6</v>
@@ -2503,23 +2503,23 @@
         <v>42</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO8" s="11"/>
       <c r="AP8" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ8" s="11"/>
     </row>
@@ -2528,16 +2528,16 @@
         <v>45168</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="14">
         <v>12260</v>
@@ -2552,35 +2552,35 @@
         <v>0.9</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N9" s="8">
         <v>5.5</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P9" s="8">
         <f>8.34-0.135</f>
         <v>8.2050000000000001</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R9" s="8">
         <v>7.5</v>
       </c>
       <c r="S9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="U9" s="10">
         <v>142.6</v>
@@ -2607,23 +2607,23 @@
         <v>42</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO9" s="11"/>
       <c r="AP9" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AQ9" s="11"/>
     </row>
@@ -2632,16 +2632,16 @@
         <v>45169</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="8">
         <v>12262</v>
@@ -2656,38 +2656,38 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N10" s="8">
         <v>5.5</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P10" s="8">
         <f>7.11-0.165</f>
         <v>6.9450000000000003</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R10" s="8">
         <v>6</v>
       </c>
       <c r="S10" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="U10" s="10">
         <v>151.5</v>
@@ -2714,22 +2714,22 @@
         <v>42</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN10" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP10" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2737,16 +2737,16 @@
         <v>45393</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="8">
         <v>-28.180982</v>
@@ -2755,22 +2755,22 @@
         <v>151.18971099999999</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N11" s="8">
         <v>3</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P11" s="8">
         <v>5.3</v>
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>4</v>
@@ -2794,28 +2794,28 @@
         <v>4</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM11" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AM11" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="AN11" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AP11" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2823,16 +2823,16 @@
         <v>45394</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8">
         <v>-28.193223</v>
@@ -2841,22 +2841,22 @@
         <v>151.186837</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="8">
         <v>5</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P12" s="8">
         <v>8</v>
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>4</v>
@@ -2883,22 +2883,22 @@
         <v>42</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK12" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL12" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="AL12" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="AM12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AP12" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2906,16 +2906,16 @@
         <v>45082</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="8">
         <v>12224</v>
@@ -2933,19 +2933,19 @@
         <v>17</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N13" s="8">
         <v>2</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P13" s="13">
         <f>4.7-0.365-0.125</f>
@@ -2958,10 +2958,10 @@
         <v>6.5</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U13" s="10">
         <v>114.5</v>
@@ -2982,34 +2982,34 @@
         <v>4</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM13" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO13" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AP13" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AQ13" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="8">
         <v>12212</v>
@@ -3047,16 +3047,16 @@
         <v>6</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N14" s="8">
         <v>4</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P14" s="8">
         <v>6.0250000000000004</v>
@@ -3104,7 +3104,7 @@
         <v>66</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG14" s="8">
         <v>1</v>
@@ -3114,16 +3114,16 @@
         <v>5</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM14" s="8" t="s">
         <v>36</v>
@@ -3132,10 +3132,10 @@
         <v>67</v>
       </c>
       <c r="AO14" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP14" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP14" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ14" s="29"/>
     </row>
@@ -3150,10 +3150,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="8">
         <v>12211</v>
@@ -3174,16 +3174,16 @@
         <v>6</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N15" s="8">
         <v>4</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P15" s="8">
         <v>5.12</v>
@@ -3225,16 +3225,16 @@
         <v>34</v>
       </c>
       <c r="AD15" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK15" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM15" s="8" t="s">
         <v>36</v>
@@ -3243,10 +3243,10 @@
         <v>71</v>
       </c>
       <c r="AO15" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP15" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ15" s="29"/>
     </row>
@@ -3261,10 +3261,10 @@
         <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="8">
         <v>12210</v>
@@ -3285,16 +3285,16 @@
         <v>6</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N16" s="8">
         <v>2</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P16" s="8">
         <v>4.18</v>
@@ -3339,25 +3339,25 @@
         <v>60</v>
       </c>
       <c r="AJ16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO16" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP16" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP16" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ16" s="29"/>
     </row>
@@ -3372,10 +3372,10 @@
         <v>51</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="8">
         <v>12213</v>
@@ -3396,16 +3396,16 @@
         <v>20</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N17" s="8">
         <v>8</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P17" s="8">
         <v>7.05</v>
@@ -3450,10 +3450,10 @@
         <v>35</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG17" s="8">
         <v>3</v>
@@ -3463,26 +3463,26 @@
         <v>7</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN17" s="11"/>
       <c r="AO17" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP17" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP17" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ17" s="29"/>
     </row>
@@ -3497,10 +3497,10 @@
         <v>76</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="8">
         <v>12215</v>
@@ -3521,16 +3521,16 @@
         <v>6</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N18" s="8">
         <v>6</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P18" s="8">
         <v>6.85</v>
@@ -3575,10 +3575,10 @@
         <v>35</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG18" s="8">
         <v>4.5</v>
@@ -3588,28 +3588,28 @@
         <v>8.5</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL18" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO18" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP18" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP18" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ18" s="29"/>
     </row>
@@ -3624,10 +3624,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="8">
         <v>12216</v>
@@ -3648,16 +3648,16 @@
         <v>6</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N19" s="8">
         <v>10</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P19" s="8">
         <v>9.1199999999999992</v>
@@ -3702,28 +3702,28 @@
         <v>42</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL19" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AO19" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP19" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ19" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -3737,10 +3737,10 @@
         <v>37</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="8">
         <v>12218</v>
@@ -3761,16 +3761,16 @@
         <v>30</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N20" s="8">
         <v>14</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P20" s="8">
         <v>5.665</v>
@@ -3815,10 +3815,10 @@
         <v>35</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG20" s="8">
         <v>2.5</v>
@@ -3828,28 +3828,28 @@
         <v>6.5</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO20" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP20" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ20" s="29"/>
     </row>
@@ -3864,10 +3864,10 @@
         <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="8">
         <v>12220</v>
@@ -3888,16 +3888,16 @@
         <v>30</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N21" s="8">
         <v>3</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P21" s="8">
         <v>5.96</v>
@@ -3942,10 +3942,10 @@
         <v>35</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" s="8">
         <v>3</v>
@@ -3955,31 +3955,31 @@
         <v>7</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AO21" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AP21" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ21" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3993,10 +3993,10 @@
         <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="8">
         <v>12219</v>
@@ -4017,16 +4017,16 @@
         <v>30</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N22" s="8">
         <v>3</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P22" s="8">
         <v>6.64</v>
@@ -4071,23 +4071,23 @@
         <v>42</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN22" s="11"/>
       <c r="AO22" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP22" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP22" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ22" s="29"/>
     </row>
@@ -4096,14 +4096,14 @@
         <v>45062</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="16">
         <v>12226</v>
@@ -4122,16 +4122,16 @@
         <v>6</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N23" s="16">
         <v>10</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P23" s="16">
         <v>8.5</v>
@@ -4141,10 +4141,10 @@
         <v>8.5</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U23" s="19">
         <v>157.80000000000001</v>
@@ -4168,13 +4168,13 @@
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK23" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL23" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM23" s="16" t="s">
         <v>36</v>
@@ -4182,7 +4182,7 @@
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
       <c r="AP23" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ23" s="16"/>
     </row>
@@ -4194,13 +4194,13 @@
         <v>14</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="8">
         <v>12227</v>
@@ -4221,16 +4221,16 @@
         <v>82</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N24" s="8">
         <v>4</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P24" s="13">
         <f>7.5-0.21-0.125</f>
@@ -4243,10 +4243,10 @@
         <v>7</v>
       </c>
       <c r="S24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T24" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="U24" s="10">
         <v>147.1</v>
@@ -4270,23 +4270,23 @@
         <v>15</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN24" s="11"/>
       <c r="AO24" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AP24" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ24" s="29"/>
     </row>
@@ -4298,13 +4298,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="14">
         <v>12222</v>
@@ -4319,38 +4319,38 @@
         <v>0.7</v>
       </c>
       <c r="J25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="L25" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N25" s="8">
         <v>15</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P25" s="13">
         <f>7.6-0.365-0.125</f>
         <v>7.1099999999999994</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R25" s="8">
         <v>7</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U25" s="10">
         <v>145.30000000000001</v>
@@ -4371,25 +4371,25 @@
         <v>4</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AO25" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP25" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ25" s="29"/>
     </row>
@@ -4398,16 +4398,16 @@
         <v>45083</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F26" s="14">
         <v>12228</v>
@@ -4422,38 +4422,38 @@
         <v>1.65</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N26" s="8">
         <v>14</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P26" s="13">
         <f>7.62-0.21-0.125</f>
         <v>7.2850000000000001</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R26" s="8">
         <v>7</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U26" s="10">
         <v>140.30000000000001</v>
@@ -4480,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG26" s="8">
         <v>4</v>
@@ -4490,26 +4490,26 @@
         <v>6.5</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN26" s="11"/>
       <c r="AO26" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP26" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ26" s="29"/>
     </row>
@@ -4518,16 +4518,16 @@
         <v>45083</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="14">
         <v>12231</v>
@@ -4545,35 +4545,35 @@
         <v>17</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N27" s="8">
         <v>15</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P27" s="13">
         <f>6.23-0.21</f>
         <v>6.0200000000000005</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R27" s="8">
         <v>6</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X27" s="8" t="s">
         <v>4</v>
@@ -4597,7 +4597,7 @@
         <v>4</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG27" s="8">
         <v>4</v>
@@ -4607,26 +4607,26 @@
         <v>6.5</v>
       </c>
       <c r="AI27" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM27" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN27" s="11"/>
       <c r="AO27" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AP27" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ27" s="29"/>
     </row>
@@ -4638,13 +4638,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F28" s="14">
         <v>12230</v>
@@ -4659,38 +4659,38 @@
         <v>0.8</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N28" s="8">
         <v>8</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P28" s="13">
         <f>7.61-0.365-0.125</f>
         <v>7.12</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R28" s="8">
         <v>7</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U28" s="10">
         <v>141.6</v>
@@ -4711,25 +4711,25 @@
         <v>4</v>
       </c>
       <c r="AJ28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM28" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO28" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AP28" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ28" s="29"/>
     </row>
@@ -4741,13 +4741,13 @@
         <v>38</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29" s="2">
         <v>-27.732420866377701</v>
@@ -4762,19 +4762,19 @@
         <v>17</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2">
         <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P29" s="22">
         <f>7.25-0.27-0.12</f>
@@ -4820,23 +4820,23 @@
         <v>42</v>
       </c>
       <c r="AJ29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AN29" s="24"/>
       <c r="AO29" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP29" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="AP29" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="AQ29" s="25"/>
     </row>
@@ -4848,13 +4848,13 @@
         <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="14">
         <v>12232</v>
@@ -4869,22 +4869,22 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N30" s="8">
         <v>1.5</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P30" s="13">
         <f>4.075-0.21</f>
@@ -4897,10 +4897,10 @@
         <v>6</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U30" s="10">
         <v>112.7</v>
@@ -4924,32 +4924,32 @@
         <v>4</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AJ30" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK30" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL30" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM30" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN30" s="11"/>
       <c r="AO30" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP30" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AP30" s="29" t="s">
-        <v>232</v>
-      </c>
       <c r="AQ30" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -4960,13 +4960,13 @@
         <v>13</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="14">
         <v>12225</v>
@@ -4984,35 +4984,35 @@
         <v>17</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N31" s="8">
         <v>8</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P31" s="13">
         <f>5.94-0.31-0.125</f>
         <v>5.5050000000000008</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R31" s="8">
         <v>6</v>
       </c>
       <c r="S31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="U31" s="10">
         <v>128.1</v>
@@ -5033,31 +5033,31 @@
         <v>4</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AJ31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO31" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP31" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ31" s="29"/>
     </row>
@@ -5066,16 +5066,16 @@
         <v>45084</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="14">
         <v>12229</v>
@@ -5093,19 +5093,19 @@
         <v>17</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N32" s="8">
         <v>5</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P32" s="13">
         <f>7.66-0.31-0.125</f>
@@ -5115,10 +5115,10 @@
         <v>7</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U32" s="10">
         <v>149.4</v>
@@ -5139,23 +5139,23 @@
         <v>4</v>
       </c>
       <c r="AJ32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN32" s="11"/>
       <c r="AO32" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP32" s="29" t="s">
         <v>231</v>
-      </c>
-      <c r="AP32" s="29" t="s">
-        <v>232</v>
       </c>
       <c r="AQ32" s="29"/>
     </row>
@@ -5164,16 +5164,16 @@
         <v>45167</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="14">
         <v>12255</v>
@@ -5191,35 +5191,35 @@
         <v>19</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N33" s="8">
         <v>4.5</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P33" s="8">
         <f>7.36-0.395</f>
         <v>6.9649999999999999</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R33" s="8">
         <v>7</v>
       </c>
       <c r="S33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T33" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="U33" s="10">
         <v>122.3</v>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG33" s="8">
         <v>9</v>
@@ -5259,16 +5259,16 @@
         <v>9</v>
       </c>
       <c r="AI33" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM33" s="8" t="s">
         <v>36</v>
@@ -5276,7 +5276,7 @@
       <c r="AN33" s="11"/>
       <c r="AO33" s="11"/>
       <c r="AP33" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ33" s="11"/>
     </row>
@@ -5285,16 +5285,16 @@
         <v>45167</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="14">
         <v>12258</v>
@@ -5307,38 +5307,38 @@
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N34" s="8">
         <v>9</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P34" s="8">
         <f>8.03-0.365</f>
         <v>7.6649999999999991</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R34" s="8">
         <v>7</v>
       </c>
       <c r="S34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="T34" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="U34" s="10">
         <v>144.4</v>
@@ -5365,13 +5365,13 @@
         <v>42</v>
       </c>
       <c r="AJ34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM34" s="8" t="s">
         <v>36</v>
@@ -5379,7 +5379,7 @@
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
       <c r="AP34" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ34" s="11"/>
     </row>
@@ -5388,16 +5388,16 @@
         <v>45167</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="14">
         <v>12256</v>
@@ -5415,19 +5415,19 @@
         <v>19</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N35" s="8">
         <v>0.75</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P35" s="8">
         <f>1.89-0.31</f>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U35" s="10">
         <v>83.6</v>
@@ -5475,13 +5475,13 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM35" s="8" t="s">
         <v>36</v>
@@ -5489,7 +5489,7 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ35" s="8"/>
     </row>
@@ -5498,16 +5498,16 @@
         <v>45168</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="14">
         <v>12261</v>
@@ -5522,36 +5522,36 @@
         <v>1.2</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N36" s="8">
         <v>9</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P36" s="8">
         <f>6.75-0.135</f>
         <v>6.6150000000000002</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R36" s="8">
         <v>7</v>
       </c>
       <c r="S36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="T36" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="U36" s="10">
         <v>125.3</v>
@@ -5575,7 +5575,7 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
@@ -5583,23 +5583,23 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO36" s="11"/>
       <c r="AP36" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ36" s="11"/>
     </row>
@@ -5608,16 +5608,16 @@
         <v>45168</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="14">
         <v>12259</v>
@@ -5632,19 +5632,19 @@
         <v>0.75</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N37" s="8">
         <v>3.5</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P37" s="8">
         <f>8.925-0.21</f>
@@ -5657,10 +5657,10 @@
         <v>8</v>
       </c>
       <c r="S37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="T37" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="U37" s="10">
         <v>141.69999999999999</v>
@@ -5687,23 +5687,23 @@
         <v>42</v>
       </c>
       <c r="AJ37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL37" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM37" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO37" s="11"/>
       <c r="AP37" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ37" s="11"/>
     </row>
@@ -5712,16 +5712,16 @@
         <v>45245</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
@@ -5738,28 +5738,28 @@
         <v>20</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N38" s="8">
         <v>5</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P38" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R38" s="8">
         <v>6</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U38" s="10">
         <v>134</v>
@@ -5772,31 +5772,31 @@
         <v>35</v>
       </c>
       <c r="AE38" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH38" s="8">
         <v>8.5</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM38" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AP38" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
@@ -5804,16 +5804,16 @@
         <v>45245</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="D39" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8">
@@ -5827,19 +5827,19 @@
         <v>17</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N39" s="8">
         <v>6</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P39" s="8">
         <v>7.58</v>
@@ -5848,7 +5848,7 @@
         <v>8</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U39" s="10">
         <v>150</v>
@@ -5858,22 +5858,22 @@
       </c>
       <c r="W39" s="8"/>
       <c r="AJ39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM39" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN39" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP39" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -5881,16 +5881,16 @@
         <v>45364</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="8">
         <v>-27.687950000000001</v>
@@ -5899,20 +5899,20 @@
         <v>151.65079</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N40" s="8">
         <v>5</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P40" s="8">
         <v>6</v>
@@ -5921,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X40" s="8" t="s">
         <v>4</v>
@@ -5936,25 +5936,25 @@
         <v>4</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ40" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AK40" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL40" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM40" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN40" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AP40" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -5962,16 +5962,16 @@
         <v>45391</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" s="8">
         <v>-28.185005</v>
@@ -5980,22 +5980,22 @@
         <v>151.17619099999999</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N41" s="8">
         <v>4</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P41" s="8">
         <v>7.72</v>
@@ -6004,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X41" s="8" t="s">
         <v>4</v>
@@ -6022,22 +6022,22 @@
         <v>42</v>
       </c>
       <c r="AJ41" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM41" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN41" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AP41" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
@@ -6045,16 +6045,16 @@
         <v>45391</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" s="8">
         <v>-28.172093</v>
@@ -6063,22 +6063,22 @@
         <v>151.17550399999999</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N42" s="8">
         <v>3</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P42" s="8">
         <v>6.49</v>
@@ -6090,7 +6090,7 @@
         <v>50</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X42" s="8" t="s">
         <v>4</v>
@@ -6108,22 +6108,22 @@
         <v>42</v>
       </c>
       <c r="AJ42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM42" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN42" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP42" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -6131,16 +6131,16 @@
         <v>45392</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="8">
         <v>-28.183094000000001</v>
@@ -6149,22 +6149,22 @@
         <v>151.17071100000001</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N43" s="8">
         <v>4</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P43" s="8">
         <v>6.15</v>
@@ -6173,7 +6173,7 @@
         <v>8</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>4</v>
@@ -6191,10 +6191,10 @@
         <v>35</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG43" s="8">
         <v>3</v>
@@ -6204,25 +6204,25 @@
         <v>6.5</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL43" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM43" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN43" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AP43" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6233,13 +6233,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2">
@@ -6256,16 +6256,16 @@
         <v>17</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N44" s="2">
         <v>9</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P44" s="2">
         <v>5.42</v>
@@ -6274,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U44" s="23"/>
       <c r="V44" s="23"/>
@@ -6292,28 +6292,28 @@
         <v>4</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AJ44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AP44" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6321,16 +6321,16 @@
         <v>45392</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2">
@@ -6347,16 +6347,16 @@
         <v>17</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N45" s="2">
         <v>16</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P45" s="2">
         <v>6.17</v>
@@ -6365,7 +6365,7 @@
         <v>7</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U45" s="23"/>
       <c r="V45" s="23"/>
@@ -6386,10 +6386,10 @@
         <v>35</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG45" s="2">
         <v>1</v>
@@ -6399,25 +6399,25 @@
         <v>4.5</v>
       </c>
       <c r="AI45" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ45" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK45" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP45" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -6425,16 +6425,16 @@
         <v>45394</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="8">
         <v>-28.201539</v>
@@ -6443,22 +6443,22 @@
         <v>151.17989</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N46" s="8">
         <v>5</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P46" s="8">
         <v>6.73</v>
@@ -6467,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X46" s="8" t="s">
         <v>4</v>
@@ -6482,25 +6482,25 @@
         <v>4</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AJ46" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK46" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL46" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM46" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AN46" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AP46" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -6508,14 +6508,14 @@
         <v>45061</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="16">
         <v>12221</v>
@@ -6528,22 +6528,22 @@
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N47" s="16">
         <v>12</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P47" s="16">
         <v>6.44</v>
@@ -6553,10 +6553,10 @@
         <v>8</v>
       </c>
       <c r="S47" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T47" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="T47" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="U47" s="19">
         <v>121.9</v>
@@ -6577,10 +6577,10 @@
         <v>35</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF47" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG47" s="16">
         <v>1.5</v>
@@ -6590,16 +6590,16 @@
         <v>5</v>
       </c>
       <c r="AI47" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ47" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK47" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL47" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM47" s="16" t="s">
         <v>36</v>
